--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 2020.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 2020.xlsx
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 2020.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>EUDY</t>
   </si>
 </sst>
 </file>
@@ -788,7 +779,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -821,29 +812,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19220030050208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 2020.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 2020.xlsx
@@ -474,19 +474,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -526,19 +526,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>66.67</v>
+        <v>76.19</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>7.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -617,16 +620,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -640,16 +646,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>76.19</v>
+      </c>
+      <c r="H4">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -705,19 +714,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -743,7 +752,7 @@
         <v>96</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -757,19 +766,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>66.67</v>
+        <v>76.19</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
